--- a/backend/reports/attendance_report_09de3d6c-fcde-440c-ad49-54f7565670d7.xlsx
+++ b/backend/reports/attendance_report_09de3d6c-fcde-440c-ad49-54f7565670d7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,10 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,6 +464,26 @@
           <t>2025-12-16 (Lec 2)</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-17 (Lec 1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,6 +506,22 @@
           <t>P</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -504,6 +544,22 @@
           <t>P</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -526,6 +582,22 @@
           <t>P</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alina Raza</t>
+          <t>Alina Raza Ali</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -546,6 +618,22 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
